--- a/biology/Botanique/Champ-de-Mars_(Athènes)/Champ-de-Mars_(Athènes).xlsx
+++ b/biology/Botanique/Champ-de-Mars_(Athènes)/Champ-de-Mars_(Athènes).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Champ-de-Mars_(Ath%C3%A8nes)</t>
+          <t>Champ-de-Mars_(Athènes)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Champ-de-Mars ou Champ-d’Arès (en grec : Πεδίον του Άρεως / Pedíon tou Áreos ou simplement Πεδίον Άρεως / Pedíon Áreos), nommé d'après le Campus Martius de Rome et le Champ-de-Mars de Paris, est un des grands parcs d’Athènes.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Champ-de-Mars_(Ath%C3%A8nes)</t>
+          <t>Champ-de-Mars_(Athènes)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'abord terrain d'exercice militaire, le Champ-de-Mars était, depuis le règne du roi Othon Ier de Grèce, le principal lieu de détente des Athéniens quand, en 1927, la gestion du nouveau parc fut attribuée à la Commission des Jardins publics d'Athènes pour effectuer des embellissements et des améliorations.
 S'étant surtout occupée du parc du Théséion puis du Jardin national d’Athènes, cette commission ne commença les travaux que six ans plus tard, avec le peu de fonds qu'il restait.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Champ-de-Mars_(Ath%C3%A8nes)</t>
+          <t>Champ-de-Mars_(Athènes)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Situation et caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce parc public de plus de 27 ha (en incluant la colline de Finopoulou) est situé entre les quartiers de Gyzi (à l'est, rue Bousgou et vers les Tribunaux, anciennement École militaire) et de Kypséli (au nord, rue Evelpidon), et entre l'avenue Alexándras (au sud) et la rue Mavromateon (à l'ouest, rue parallèle à Patission).
 On y trouve en particulier un alignement de bustes de marbre de 21 combattants, héros de la Révolution.
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Champ-de-Mars_(Ath%C3%A8nes)</t>
+          <t>Champ-de-Mars_(Athènes)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,6 +599,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Champ-de-Mars_(Ath%C3%A8nes)</t>
+          <t>Champ-de-Mars_(Athènes)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 (en)/(el) Cet article est partiellement ou en totalité issu des articles intitulés en anglais « Pedion_tou_Areos » (voir la liste des auteurs) et en grec moderne « Πεδίον_του_Άρεως » (voir la liste des auteurs).
